--- a/我的创作/财务/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/财务/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
@@ -3693,13 +3693,13 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3760,8 +3760,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3776,46 +3829,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3830,10 +3875,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3845,55 +3890,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3972,7 +3972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3990,13 +3990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4008,7 +4008,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4020,25 +4044,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4050,25 +4098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4086,67 +4122,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4184,11 +4184,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4205,16 +4229,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4234,21 +4258,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4263,154 +4272,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,13 +4441,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4462,19 +4462,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4492,16 +4492,16 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4516,16 +4516,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4534,7 +4534,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4565,10 +4565,10 @@
     <xf numFmtId="10" fontId="4" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4595,10 +4595,10 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4613,13 +4613,13 @@
     <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4628,7 +4628,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4637,32 +4637,32 @@
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4674,19 +4674,19 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5101,11 +5101,11 @@
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S159" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC221" sqref="AC221"/>
+      <selection pane="bottomRight" activeCell="AC352" sqref="AC352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -24672,10 +24672,10 @@
         <v>10.27</v>
       </c>
       <c r="R352" s="73">
-        <v>11.75</v>
+        <v>12.36</v>
       </c>
       <c r="S352" s="73">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="T352" s="73"/>
       <c r="U352" s="73"/>
@@ -24694,7 +24694,7 @@
       </c>
       <c r="AC352" s="44">
         <f>(R352-S352)/R352</f>
-        <v>0.0808510638297872</v>
+        <v>0.110032362459547</v>
       </c>
       <c r="AD352" s="44"/>
       <c r="AE352" s="44"/>

--- a/我的创作/财务/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/财务/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -5105,7 +5105,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC352" sqref="AC352"/>
+      <selection pane="bottomRight" activeCell="AA352" sqref="AA352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
